--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/58_Mersin_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/58_Mersin_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C0C7DE-EBD3-4C22-BD83-126E7D9CC62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9FFB87-783A-49AB-9CE1-AF51E87E50AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{54547641-9408-49B8-972F-5F1C890B0B4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{05C6AF64-E5E7-4001-AFFF-EA3A20FCCE00}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D9DA02C8-5C2C-4866-8A88-10914F44896A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{39F87939-83CB-436F-A4F0-B3A4FD8EC0DE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{6E8C4D8D-6BED-4BC7-AF26-243BAD957528}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9EC7245F-980E-4068-8C69-AC94C7A05B18}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{082DC5AE-BA19-4C9F-81FB-9D544E4A4D75}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{8E5C135B-7E4C-4E07-A2F4-3BC000DB8F02}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E1CAD03A-DF29-46B1-8CED-98E53BD67ECF}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ECA7CBCE-F46F-4BE8-A541-8B6DDC28301F}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{FCA33C74-4FA9-459A-90F2-CEE8302322C0}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{4765099C-6824-475D-8910-DD4F036E7A6A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{8B4E0401-D2B3-46E7-BD60-5C19DA523CEC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{1E61ABEB-DE38-4BB0-B929-A79A74D2C5B5}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{734CF517-C67E-4E9D-B780-D85F27733B08}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1BF76170-CB01-4558-90A6-0AF1F9C84E97}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9238C74-1A0A-4735-9BAE-47D21975B65B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BACDA3-8647-4EF3-BF66-ECB60D6E5537}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FC1F86-982C-4A80-A597-83012103D5DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF8B169-9E94-4232-BE27-5548054D8606}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3861,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF6C1B1-4B19-440B-BB67-8E0AFD25E8F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31F1949-3DCA-46AF-BCCE-A8464E9E56F5}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EAF330-617C-470E-BC8E-2108C521CCA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4134AB-8E1A-4938-8742-BEFD321C9F8C}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6373,7 +6373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DA0FD9-C4DB-424F-8D2F-DE07F59C2FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3549F454-C534-4080-A895-3952615C3FD3}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7679,7 +7679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C63609-649E-4673-B622-DCED30D5D0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A47B46-D0E6-4987-B6E3-4DE35CA84B17}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8985,7 +8985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3443BC3-600F-4E47-BA86-EE2758B4B101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA16B54-3ACC-4A1C-A6D2-07CC7AB726B5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10291,7 +10291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FA3A4C-73DC-4E23-ACB0-7260E5E1B1E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E860C562-E770-45CF-BEA4-C77BED726245}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11597,7 +11597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30371578-C018-47F5-886B-E3A6F626B8FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3047B232-89F1-42A3-AD20-83896BEF8F40}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12903,7 +12903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CE42B9-3822-4C9F-BF3F-AA74AE3647CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6516C4FD-070D-4023-BC98-EE6E2BFDD372}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14193,7 +14193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B60524-6C2C-414E-A458-0A21EC087F0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DD4131-BA33-4A7B-8BFF-A68CF40CB210}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15479,7 +15479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4513D-6DED-417A-BAEB-1CEBC4620BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A849AE-3B58-4B28-8A1A-03B0C490C4E3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
